--- a/Docs/DocumentacionEscenarioPruebas.xlsx
+++ b/Docs/DocumentacionEscenarioPruebas.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>RF4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>SENTENCIA SQL</t>
   </si>
@@ -57,22 +54,91 @@
     <t>SELECT * FROM pedido WHERE CEDULA=id;</t>
   </si>
   <si>
-    <t>"SELECT * \r\n" + 
-    "FROM PRODUCTO NATURAL JOIN(SELECT * \r\n" + 
-    "FROM (SELECT  MAX(TOTALMENUS) AS TOTALMENUS\r\n" + 
-    "FROM(SELECT IDPRODUCTO, COUNT(IDMENU) AS TOTALMENUS\r\n" + 
-    "FROM (PRODUCTO P NATURAL JOIN TIENEPRODUCTO T) GROUP BY IDPRODUCTO)) NATURAL JOIN (SELECT IDPRODUCTO, COUNT(IDMENU) AS TOTALMENUS\r\n" + 
-    "FROM (PRODUCTO P NATURAL JOIN TIENEPRODUCTO T) GROUP BY IDPRODUCTO))";</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT * FROM USUARIO WHERE CEDULA=id; (CON ID = 17) </t>
+  </si>
+  <si>
+    <t>SELECT *  FROM PRODUCTO NATURAL JOIN(SELECT * FROM (SELECT  MAX(TOTALMENUS) AS TOTALMENUS FROM(SELECT IDPRODUCTO, COUNT(IDMENU) AS TOTALMENUS FROM (PRODUCTO P NATURAL JOIN TIENEPRODUCTO T) GROUP BY IDPRODUCTO)) NATURAL JOIN (SELECT IDPRODUCTO, COUNT(IDMENU) AS TOTALMENUS FROM (PRODUCTO P NATURAL JOIN TIENEPRODUCTO T) GROUP BY IDPRODUCTO));</t>
+  </si>
+  <si>
+    <t>El parámetro es el id por lo que es único, no se repite en la búsqueda, y debido a la cantidad de datos en esta tabla, su distribución es igual a la de cualquier otra tupla. Respecto a la posibilidad de cambiar el tamaño de la respuesta lo unico que se podría hacer es provocar un resultado vacio con un id inexistente, como por ejemplo 5 (millones). No se puede incrementar ya que el requerimiento solo habla de la información de un solo cliente.</t>
+  </si>
+  <si>
+    <t>VALORES DE PARÁMETROS</t>
+  </si>
+  <si>
+    <t>ID (USUARIO)</t>
+  </si>
+  <si>
+    <t>RC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT * FROM(SELECT IDPRODUCTO, COUNT(IDPRODUCTO) AS TOTAL FROM ((SELECT IDPEDIDO, TO_CHAR(FECHAYHORA,'DY' ) AS DY FROM PEDIDO )NATURAL JOIN PEDIDOPRODUCTO) NATURAL JOIN PRODUCTO  WHERE DY='DOM'  GROUP BY IDPRODUCTO)NATURAL JOIN(SELECT  MAX(TOTAL)AS TOTAL  FROM(SELECT IDPRODUCTO, COUNT(IDPRODUCTO) AS TOTAL FROM ((SELECT IDPEDIDO, TO_CHAR(FECHAYHORA,'DY' ) AS DY FROM PEDIDO )NATURAL JOIN PEDIDOPRODUCTO) NATURAL JOIN PRODUCTO  WHERE DY='DOM'  GROUP BY IDPRODUCTO) );</t>
+  </si>
+  <si>
+    <t>RC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT * FROM(SELECT LOCAL, COUNT(LOCAL) AS TOTAL FROM ((SELECT IDPEDIDO, TO_CHAR(FECHAYHORA,'DY' ) AS DY FROM PEDIDO )NATURAL JOIN PEDIDOPRODUCTO) NATURAL JOIN RESTAURANTE  WHERE DY='DOM'  GROUP BY LOCAL)NATURAL JOIN(SELECT  MAX(TOTAL)AS TOTAL  FROM(SELECT LOCAL, COUNT(LOCAL) AS TOTAL FROM ((SELECT IDPEDIDO, TO_CHAR(FECHAYHORA,'DY' ) AS DY FROM PEDIDO )NATURAL JOIN PEDIDOPRODUCTO) NATURAL JOIN RESTAURANTE  WHERE DY='DOM'  GROUP BY LOCAL) );</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT * FROM(SELECT IDPRODUCTO, COUNT(IDPRODUCTO) AS TOTAL FROM ((SELECT IDPEDIDO, TO_CHAR(FECHAYHORA,'DY' ) AS DY FROM PEDIDO )NATURAL JOIN PEDIDOPRODUCTO) NATURAL JOIN PRODUCTO  WHERE DY='DOM'  GROUP BY IDPRODUCTO)NATURAL JOIN(SELECT  MIN(TOTAL)AS TOTAL  FROM(SELECT IDPRODUCTO, COUNT(IDPRODUCTO) AS TOTAL FROM ((SELECT IDPEDIDO, TO_CHAR(FECHAYHORA,'DY' ) AS DY FROM PEDIDO )NATURAL JOIN PEDIDOPRODUCTO) NATURAL JOIN PRODUCTO  WHERE DY='DOM'  GROUP BY IDPRODUCTO) );</t>
+  </si>
+  <si>
+    <t>SELECT * FROM(SELECT LOCAL, COUNT(LOCAL) AS TOTAL FROM ((SELECT IDPEDIDO, TO_CHAR(FECHAYHORA,'DY' ) AS DY FROM PEDIDO )NATURAL JOIN PEDIDOPRODUCTO) NATURAL JOIN RESTAURANTE  WHERE DY='DOM'  GROUP BY LOCAL)NATURAL JOIN(SELECT  MIN(TOTAL)AS TOTAL  FROM(SELECT LOCAL, COUNT(LOCAL) AS TOTAL FROM ((SELECT IDPEDIDO, TO_CHAR(FECHAYHORA,'DY' ) AS DY FROM PEDIDO )NATURAL JOIN PEDIDOPRODUCTO) NATURAL JOIN RESTAURANTE  WHERE DY='DOM'  GROUP BY LOCAL) );</t>
+  </si>
+  <si>
+    <t>Este requerimiento no tiene parámetros de entrada ya que la respuesta es única en el momento de la consulta.  En cuanto a los casos de prueba no habría ninguno debido a lo ya mencionado, no habría escensarios a analizar puesto que la respuesta es única y solo habría un único escenario.</t>
+  </si>
+  <si>
+    <t>La distribución de los resultados de este requerimiento dependerían de la cantidad de menús existentes, como también de la cantidad de productos y finalmente la intersección de estos dos, es decir, el contenido de los menus respecto a los productos. No hay escenarios de prueba, ya que como ya fue explicado, este resultado es constante.</t>
+  </si>
+  <si>
+    <t>RC11</t>
+  </si>
+  <si>
+    <t>RC10</t>
+  </si>
+  <si>
+    <t>SELECT CEDULA, NOMBRE, ROL, EMAIL 
+FROM ( SELECT IDPRODUCTO, LOCAL 
+       FROM (OFRECEPRODUCTO NATURAL JOIN RESTAURANTE))a1 
+       INNER JOIN
+     ( SELECT USUARIO.CEDULA, NOMBRE, ROL, EMAIL, IDPRODUCTO, LOCAL, IDPEDIDO 
+       FROM (USUARIO RIGHT OUTER JOIN PEDIDO ON USUARIO.CEDULA= PEDIDO.CEDULA) NATURAL JOIN PEDIDOPRODUCTO 
+            WHERE ROL='CLIENTE' AND (FECHAYHORA BETWEEN  TO_DATE('01/01/17') AND TO_DATE('31/12/17')))us ON  a1.LOCAL=us.LOCAL 
+WHERE  us.LOCAL=366520 
+GROUP BY CEDULA, NOMBRE, ROL, EMAIL;</t>
+  </si>
+  <si>
+    <t>SELECT CEDULA, NOMBRE, ROL, EMAIL FROM USUARIO WHERE ROL='CLIENTE' AND (CEDULA) NOT IN(SELECT CEDULA
+            FROM ( SELECT IDPRODUCTO, LOCAL 
+                   FROM (OFRECEPRODUCTO NATURAL JOIN RESTAURANTE))a1 
+                   INNER JOIN
+                 ( SELECT USUARIO.CEDULA, NOMBRE, ROL, EMAIL, IDPRODUCTO, LOCAL, IDPEDIDO 
+                   FROM (USUARIO RIGHT OUTER JOIN PEDIDO ON USUARIO.CEDULA= PEDIDO.CEDULA) NATURAL JOIN PEDIDOPRODUCTO 
+                        WHERE ROL='CLIENTE' AND (FECHAYHORA BETWEEN  TO_DATE('01/01/17') AND TO_DATE('31/12/17')))us ON  a1.LOCAL=us.LOCAL 
+            WHERE  us.LOCAL=366520 
+            GROUP BY CEDULA, NOMBRE, ROL, EMAIL);</t>
+  </si>
+  <si>
+    <t>RC12</t>
+  </si>
+  <si>
+    <t>SELECT CEDULA, NOMBRE, EMAIL, ROL 
+FROM (((SELECT  CEDULA,NOM AS NOMBRE, ROL, EMAIL
+FROM ((PEDIDO NATURAL JOIN (SELECT CEDULA, ROL, EMAIL, NOMBRE AS NOM FROM USUARIO)) INNER JOIN (PEDIDOPRODUCTO NATURAL JOIN (PRODUCTO NATURAL JOIN OFRECEPRODUCTO))  ON PEDIDO.IDPEDIDO=PEDIDOPRODUCTO.IDPEDIDO) 
+WHERE IDCATEGORIA=2 AND PRECIO&gt;=36885.855 )
+UNION ALL (SELECT CEDULA, NOMBRE,EMAIL,ROL  FROM(SELECT SUM(NUMWEEKS) AS TOTALWEEKS FROM (SELECT COUNT(DISTINCT(WEEK)) AS NUMWEEKS,YEAR FROM(SELECT IDPEDIDO, EXTRACT(YEAR FROM FECHAYHORA) AS YEAR, to_number(to_char(FECHAYHORA,'WW')) AS WEEK FROM (PEDIDO )) GROUP BY YEAR)) NATURAL JOIN (SELECT NOMBRE, ROL, CEDULA, EMAIL, SUM(NUMWEEKS) AS TOTALWEEKS FROM (SELECT COUNT(*) AS NUMWEEKS, NOMBRE, CEDULA, EMAIL, ROL, YEAR FROM (SELECT  EXTRACT(YEAR FROM FECHAYHORA)AS YEAR, CEDULA, ROL, NoMBRE, EMAIL , to_number(to_char(FECHAYHORA,'WW')) AS WEEK FROM (PEDIDO NATURAL JOIN USUARIO)) GROUP BY NOMBRE, ROL, CEDULA, EMAIL, YEAR) GROUP BY NOMBRE, ROL, CEDULA, EMAIL))))
+UNION ALL SELECT CEDULA, NOMBRE, ROL, EMAIL FROM (PEDIDO NATURAL JOIN PEDIDOPRODUCTO) NATURAL JOIN USUARIO
+WHERE CEDULA not IN (SELECT CEDULA FROM (PEDIDO NATURAL JOIN PEDIDOMENU) NATURAL JOIN USUARIO CEDULA )
+GROUP BY CEDULA, NOMBRE, EMAIL, ROL ;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,8 +153,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +207,26 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -130,15 +237,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -151,13 +262,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="10">
+    <cellStyle name="Bueno" xfId="6" builtinId="26"/>
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
     <cellStyle name="Énfasis2" xfId="2" builtinId="33"/>
     <cellStyle name="Énfasis3" xfId="3" builtinId="37"/>
     <cellStyle name="Énfasis4" xfId="4" builtinId="41"/>
+    <cellStyle name="Énfasis5" xfId="9" builtinId="45"/>
     <cellStyle name="Énfasis6" xfId="5" builtinId="49"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -177,46 +303,896 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2339340</xdr:colOff>
+      <xdr:colOff>7589520</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>990600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6076C3F5-C892-4E45-82B4-1A5C519FA9C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14165580" y="365760"/>
+          <a:ext cx="7589520" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3992880</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>777307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD7ACC8-F2DB-41D7-AA62-783F5E6913BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21816060" y="365760"/>
+          <a:ext cx="3992880" cy="777307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>130206</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85B1B14-4A52-402C-8C0F-2D39A2DDB143}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14165580" y="365760"/>
-          <a:ext cx="9921240" cy="1143666"/>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7635240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2819400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F73FE99-6091-4C4D-B626-CAD07C95F1F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18051780" y="1661160"/>
+          <a:ext cx="7635240" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>784928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0CE1C0-5C5E-4B0F-9CFE-FCA90BF61C32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21816060" y="1379220"/>
+          <a:ext cx="5417820" cy="784928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5143946</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>792549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F9107E-2F98-4AB2-87EB-C42911E51FFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21816060" y="4213860"/>
+          <a:ext cx="5143946" cy="792549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1032003</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B788C399-64FE-491F-8328-B2020496E79F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14165580" y="4213860"/>
+          <a:ext cx="7658100" cy="1032003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2552700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85AA95CE-CDF6-42E7-8175-1EDAE236007C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14165580" y="5280660"/>
+          <a:ext cx="7673340" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2552700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5189220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F56F803-102C-42AE-AFF8-D143971D2308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14173200" y="7833360"/>
+          <a:ext cx="7650480" cy="2636520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5402580</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>868755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3AD4F5-FA51-4539-BD56-C119808691CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21816060" y="5280660"/>
+          <a:ext cx="5402580" cy="868755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3901773</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1569852</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagen 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D15B2EA-9F3A-4D1F-82FD-049C5584C1FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25755600" y="12291060"/>
+          <a:ext cx="3848433" cy="1524132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3787468</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>830652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C565FF99-3A5B-490E-A0F8-8905010A2731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25702260" y="13845540"/>
+          <a:ext cx="3787468" cy="830652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3802710</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>670618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagen 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5F9CFB-7AC6-4240-8B61-110710C7D52B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25702260" y="15491460"/>
+          <a:ext cx="3802710" cy="670618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3574090</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1623201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagen 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95217495-1DC1-45BD-BD89-8657D34FE1D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25702260" y="16954500"/>
+          <a:ext cx="3574090" cy="1623201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3490262</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1562235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagen 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12D7185-F8B4-42DF-8260-1984A674784A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25702260" y="18600420"/>
+          <a:ext cx="3490262" cy="1562235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4069427</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1813712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagen 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD9A116-E312-4EAD-A6A2-F0D56BA9736B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25763220" y="20261580"/>
+          <a:ext cx="4008467" cy="1752752"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7642860</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4229101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagen 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61FCD3C1-399C-4EA9-A30E-DD8264D64D95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18051780" y="20200621"/>
+          <a:ext cx="7642860" cy="4229100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4061807</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1082131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagen 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35E201D-1E76-471C-9D36-8CB84BCFE342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25755600" y="10789920"/>
+          <a:ext cx="4008467" cy="1051651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7612380</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3223261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Imagen 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64196EE4-1233-4D97-9663-FD2FE7DC550A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18051780" y="10759441"/>
+          <a:ext cx="7612380" cy="3223260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -525,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495592F4-0ED0-44AA-A160-5F1BDEECFE03}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,65 +1512,161 @@
     <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="73.6640625" customWidth="1"/>
     <col min="3" max="3" width="61.109375" customWidth="1"/>
-    <col min="4" max="4" width="56.6640625" customWidth="1"/>
-    <col min="5" max="5" width="110.5546875" customWidth="1"/>
-    <col min="6" max="6" width="55.6640625" customWidth="1"/>
+    <col min="4" max="5" width="56.6640625" customWidth="1"/>
+    <col min="6" max="6" width="111.5546875" customWidth="1"/>
+    <col min="7" max="7" width="78.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="223.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="223.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
+      <c r="C3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="256.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/DocumentacionEscenarioPruebas.xlsx
+++ b/Docs/DocumentacionEscenarioPruebas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>SENTENCIA SQL</t>
   </si>
@@ -132,6 +132,21 @@
 UNION ALL SELECT CEDULA, NOMBRE, ROL, EMAIL FROM (PEDIDO NATURAL JOIN PEDIDOPRODUCTO) NATURAL JOIN USUARIO
 WHERE CEDULA not IN (SELECT CEDULA FROM (PEDIDO NATURAL JOIN PEDIDOMENU) NATURAL JOIN USUARIO CEDULA )
 GROUP BY CEDULA, NOMBRE, EMAIL, ROL ;</t>
+  </si>
+  <si>
+    <t>En este caso los valores que entran por parametros son el ROL (usuario), el local del restaurante, el producto del determinado restaurante y los rangos de fechas. Estos resultados varían según todos menos el rol, ya que esta tiene que ser una constante debido a lo requerido. Por otra parte, la respuesta se agrandaría si el rango de fechas es mayor, sin embargo, lo que más determina este tamaño de respuesta es el producto y el restaurante ingresados.</t>
+  </si>
+  <si>
+    <t>La distribución de los datos de entrada se estima uniforme para cada producto de cada restaurante, puesto que al tener en cuenta el tamaño de las tablas de los productos, de los restaurantes y de los pedidos, es bastante poco probable que más de un cliente hayan consumido lo mismo en el mismo rango de fechas.</t>
+  </si>
+  <si>
+    <t>La distribución de los parámetros de entrada en este requerimiento esta determinada gracias a los pedidos, ya que en ellos y la cantidada de veces que un producto haga parte de una de estas tuplas es donde se ve realmente la cardinalidad.</t>
+  </si>
+  <si>
+    <t>Los parámetros de entrada en este caso es el costo de 1.5 SMDV solamente, puesto que el resto se toma como una constante que se da gracias a este valor de entrada.</t>
+  </si>
+  <si>
+    <t>La distribución de los parámetros de entrada en este requerimiento esta determinada gracias a los pedidos, ya que en ellos se puede determinar los mejores clientes, lo que pidieron, cuando lo pidieron, el costo de lo que pidieron  y cada cuanto lo pidieron.</t>
   </si>
 </sst>
 </file>
@@ -1193,6 +1208,256 @@
         <a:xfrm>
           <a:off x="18051780" y="10759441"/>
           <a:ext cx="7612380" cy="3223260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7627620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3863340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC18E26-08A6-4D14-8947-82C44C550012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18074640" y="14043660"/>
+          <a:ext cx="7604760" cy="3832860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27A6FAD-BF13-4BE9-A3DC-F58C7AE190DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18105120" y="17937480"/>
+          <a:ext cx="7650480" cy="2537460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagen 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1EDF950-2346-4CC6-8770-54B276EF0D35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18135600" y="20505420"/>
+          <a:ext cx="7650480" cy="2537460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2552700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagen 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{044C118E-DEE4-45FC-922B-F710870E2FF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18112740" y="23050500"/>
+          <a:ext cx="7650480" cy="2537460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2537460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagen 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915C8A58-53CF-45B4-B128-B172282982BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18097500" y="25626060"/>
+          <a:ext cx="7650480" cy="2537460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1503,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495592F4-0ED0-44AA-A160-5F1BDEECFE03}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1607,10 +1872,14 @@
       <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="306.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1620,10 +1889,14 @@
       <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="202.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1633,29 +1906,53 @@
       <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="204" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>19</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
@@ -1667,6 +1964,12 @@
       </c>
       <c r="C12" s="10" t="s">
         <v>27</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
